--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1019</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>777</x:v>
@@ -767,7 +767,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2240</x:v>
+        <x:v>2242</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8686</x:v>
+        <x:v>8688</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5376</x:v>
@@ -796,7 +796,7 @@
         <x:v>1723</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16909</x:v>
+        <x:v>16911</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,13 +1126,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7408</x:v>
+        <x:v>7410</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2936</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>1021</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2520</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14138</x:v>
+        <x:v>14141</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,13 +1184,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7983</x:v>
+        <x:v>7985</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3062</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>1052</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2729</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15099</x:v>
+        <x:v>15102</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6698</x:v>
+        <x:v>6699</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4329</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1297</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13371</x:v>
+        <x:v>13372</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7335</x:v>
+        <x:v>7336</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4864</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1442</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14739</x:v>
+        <x:v>14740</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>193</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>778</x:v>
+        <x:v>782</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>461</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>312</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>989</x:v>
+        <x:v>993</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>447</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>26</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2260,7 +2260,7 @@
         <x:v>535</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>29</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>970</x:v>
+        <x:v>971</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -752,7 +752,7 @@
         <x:v>1021</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>40</x:v>
@@ -767,7 +767,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2242</x:v>
+        <x:v>2243</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8688</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5376</x:v>
+        <x:v>5377</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>295</x:v>
@@ -796,7 +796,7 @@
         <x:v>1723</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16911</x:v>
+        <x:v>16912</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7410</x:v>
+        <x:v>7413</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2936</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2520</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14141</x:v>
+        <x:v>14144</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7985</x:v>
+        <x:v>7988</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3062</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2729</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15102</x:v>
+        <x:v>15105</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1142</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>47</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2420</x:v>
+        <x:v>2422</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1164</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>50</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2508</x:v>
+        <x:v>2510</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1898</x:v>
+        <x:v>1900</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2203</x:v>
+        <x:v>2205</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1111</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2376</x:v>
+        <x:v>2377</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>790</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1297</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2703</x:v>
+        <x:v>2704</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7667</x:v>
+        <x:v>7666</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4599</x:v>
+        <x:v>4600</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>255</x:v>
@@ -735,10 +735,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1422</x:v>
+        <x:v>1421</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14669</x:v>
+        <x:v>14668</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8688</x:v>
+        <x:v>8687</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5377</x:v>
+        <x:v>5378</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>295</x:v>
@@ -793,10 +793,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1723</x:v>
+        <x:v>1722</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16912</x:v>
+        <x:v>16911</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -868,7 +868,7 @@
         <x:v>862</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>408</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>25</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1500</x:v>
+        <x:v>1499</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -926,7 +926,7 @@
         <x:v>947</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>27</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1683</x:v>
+        <x:v>1682</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1126,13 +1126,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7413</x:v>
+        <x:v>7412</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2936</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>1021</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>2520</x:v>
+        <x:v>2519</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
         <x:v>14144</x:v>
@@ -1184,13 +1184,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7988</x:v>
+        <x:v>7987</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3062</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>1052</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>2729</x:v>
+        <x:v>2728</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
         <x:v>15105</x:v>
@@ -1390,7 +1390,7 @@
         <x:v>1143</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>47</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2422</x:v>
+        <x:v>2423</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1165</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>50</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2510</x:v>
+        <x:v>2511</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1535,7 +1535,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>4</x:v>
@@ -1550,7 +1550,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1593,7 +1593,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>4</x:v>
@@ -1608,7 +1608,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1793,16 +1793,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6699</x:v>
+        <x:v>6700</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4329</x:v>
+        <x:v>4333</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>205</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>29</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1297</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13372</x:v>
+        <x:v>13378</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,16 +1851,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7336</x:v>
+        <x:v>7337</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4864</x:v>
+        <x:v>4868</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>220</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>32</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1442</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14740</x:v>
+        <x:v>14746</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -868,7 +868,7 @@
         <x:v>862</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>25</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1499</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -926,7 +926,7 @@
         <x:v>947</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>27</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1682</x:v>
+        <x:v>1683</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7412</x:v>
+        <x:v>7411</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2936</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2519</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14144</x:v>
+        <x:v>14143</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7987</x:v>
+        <x:v>7986</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3062</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2728</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15105</x:v>
+        <x:v>15104</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6700</x:v>
+        <x:v>6701</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4333</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1297</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13378</x:v>
+        <x:v>13379</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7337</x:v>
+        <x:v>7338</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4868</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1442</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14746</x:v>
+        <x:v>14747</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1900</x:v>
+        <x:v>1901</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>877</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2205</x:v>
+        <x:v>2206</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1799,7 +1799,7 @@
         <x:v>4333</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
         <x:v>814</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1297</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13379</x:v>
+        <x:v>13378</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1857,7 +1857,7 @@
         <x:v>4868</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>847</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1442</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14747</x:v>
+        <x:v>14746</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7666</x:v>
+        <x:v>7665</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4600</x:v>
@@ -729,7 +729,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>40</x:v>
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8687</x:v>
+        <x:v>8686</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5378</x:v>
@@ -787,7 +787,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>786</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>43</x:v>
@@ -1129,7 +1129,7 @@
         <x:v>7411</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2936</x:v>
+        <x:v>2937</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2519</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14143</x:v>
+        <x:v>14144</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7986</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3062</x:v>
+        <x:v>3063</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2728</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15104</x:v>
+        <x:v>15105</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1712,7 +1712,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>6</x:v>
@@ -1724,7 +1724,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1770,7 +1770,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
         <x:v>6</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6701</x:v>
+        <x:v>6688</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4333</x:v>
+        <x:v>4331</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>204</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1297</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13378</x:v>
+        <x:v>13379</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,10 +1822,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>15</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
         <x:v>1368</x:v>
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7338</x:v>
+        <x:v>7324</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4868</x:v>
+        <x:v>4865</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>219</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1442</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14746</x:v>
+        <x:v>14747</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1111</x:v>
+        <x:v>1112</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>73</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2377</x:v>
+        <x:v>2378</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>791</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1297</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>93</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2705</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7411</x:v>
+        <x:v>7410</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2937</x:v>
+        <x:v>2938</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7986</x:v>
+        <x:v>7985</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3063</x:v>
+        <x:v>3064</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1143</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>718</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2423</x:v>
+        <x:v>2424</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1165</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>768</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2511</x:v>
+        <x:v>2512</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>447</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>26</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>805</x:v>
+        <x:v>806</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2260,7 +2260,7 @@
         <x:v>535</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>29</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>971</x:v>
+        <x:v>972</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>862</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>408</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1500</x:v>
+        <x:v>1501</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>479</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1683</x:v>
+        <x:v>1684</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6688</x:v>
+        <x:v>6690</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4331</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1313</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13379</x:v>
+        <x:v>13381</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7324</x:v>
+        <x:v>7326</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4865</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1460</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14747</x:v>
+        <x:v>14749</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1901</x:v>
+        <x:v>1902</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2206</x:v>
+        <x:v>2207</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7410</x:v>
+        <x:v>7408</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2938</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>2519</x:v>
+        <x:v>2520</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14144</x:v>
+        <x:v>14143</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7985</x:v>
+        <x:v>7983</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3064</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>2728</x:v>
+        <x:v>2729</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15105</x:v>
+        <x:v>15104</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1144</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>718</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2424</x:v>
+        <x:v>2423</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1166</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>768</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2512</x:v>
+        <x:v>2511</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1902</x:v>
+        <x:v>1901</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>879</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2207</x:v>
+        <x:v>2206</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -726,10 +726,10 @@
         <x:v>4600</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>687</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>40</x:v>
@@ -784,10 +784,10 @@
         <x:v>5378</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>787</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>43</x:v>
@@ -1039,7 +1039,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>831</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>470</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1638</x:v>
+        <x:v>1640</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1064</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>595</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2062</x:v>
+        <x:v>2064</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1143</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>718</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2423</x:v>
+        <x:v>2424</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1165</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>768</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2511</x:v>
+        <x:v>2512</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6690</x:v>
+        <x:v>6691</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4331</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1313</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13381</x:v>
+        <x:v>13382</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7326</x:v>
+        <x:v>7327</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4865</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1460</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14749</x:v>
+        <x:v>14750</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6691</x:v>
+        <x:v>6692</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4331</x:v>
+        <x:v>4332</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>204</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1313</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13382</x:v>
+        <x:v>13384</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7327</x:v>
+        <x:v>7328</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4865</x:v>
+        <x:v>4866</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>219</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1460</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14750</x:v>
+        <x:v>14752</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2144,7 +2144,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>5</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>10</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>869</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1129,7 +1129,7 @@
         <x:v>7408</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2938</x:v>
+        <x:v>2937</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2520</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14143</x:v>
+        <x:v>14142</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7983</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3064</x:v>
+        <x:v>3063</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2729</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15104</x:v>
+        <x:v>15103</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>193</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>312</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>994</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -633,7 +633,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>28</x:v>
@@ -651,7 +651,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -691,7 +691,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>30</x:v>
@@ -709,7 +709,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7665</x:v>
+        <x:v>7664</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4600</x:v>
@@ -735,7 +735,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1421</x:v>
+        <x:v>1422</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
         <x:v>14668</x:v>
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8686</x:v>
+        <x:v>8685</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5378</x:v>
@@ -793,7 +793,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1722</x:v>
+        <x:v>1723</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
         <x:v>16911</x:v>
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6692</x:v>
+        <x:v>6693</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4332</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1313</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13384</x:v>
+        <x:v>13385</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7328</x:v>
+        <x:v>7329</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4866</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1460</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14752</x:v>
+        <x:v>14753</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7408</x:v>
+        <x:v>7410</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2937</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2520</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14142</x:v>
+        <x:v>14144</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7983</x:v>
+        <x:v>7985</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3063</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2729</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15103</x:v>
+        <x:v>15105</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6693</x:v>
+        <x:v>6694</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4332</x:v>
+        <x:v>4333</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>204</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1313</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13385</x:v>
+        <x:v>13387</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7329</x:v>
+        <x:v>7330</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4866</x:v>
+        <x:v>4867</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>219</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1460</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14753</x:v>
+        <x:v>14755</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2205,7 +2205,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
         <x:v>26</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>805</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2263,7 +2263,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
         <x:v>33</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>972</x:v>
+        <x:v>971</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1901</x:v>
+        <x:v>1902</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2206</x:v>
+        <x:v>2207</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -723,7 +723,7 @@
         <x:v>7664</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4600</x:v>
+        <x:v>4599</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>256</x:v>
@@ -738,7 +738,7 @@
         <x:v>1422</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14668</x:v>
+        <x:v>14667</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8685</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5378</x:v>
+        <x:v>5377</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>296</x:v>
@@ -796,7 +796,7 @@
         <x:v>1723</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16911</x:v>
+        <x:v>16910</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>6694</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4333</x:v>
+        <x:v>4332</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>204</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1313</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13387</x:v>
+        <x:v>13385</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7330</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4867</x:v>
+        <x:v>4866</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>219</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1460</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14755</x:v>
+        <x:v>14753</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7664</x:v>
+        <x:v>7663</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4599</x:v>
+        <x:v>4598</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>256</x:v>
@@ -738,7 +738,7 @@
         <x:v>1422</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14667</x:v>
+        <x:v>14665</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8685</x:v>
+        <x:v>8684</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5377</x:v>
+        <x:v>5376</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>296</x:v>
@@ -796,7 +796,7 @@
         <x:v>1723</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16910</x:v>
+        <x:v>16908</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1045,7 +1045,7 @@
         <x:v>470</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>97</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1640</x:v>
+        <x:v>1641</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1103,7 +1103,7 @@
         <x:v>595</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>109</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2064</x:v>
+        <x:v>2065</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>7410</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2937</x:v>
+        <x:v>2936</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2520</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14144</x:v>
+        <x:v>14143</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7985</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3063</x:v>
+        <x:v>3062</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2729</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15105</x:v>
+        <x:v>15104</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>27</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1271,7 +1271,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>31</x:v>
@@ -1289,7 +1289,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6694</x:v>
+        <x:v>6693</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4332</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1312</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13385</x:v>
+        <x:v>13384</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7330</x:v>
+        <x:v>7329</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4866</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1459</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14753</x:v>
+        <x:v>14752</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7663</x:v>
+        <x:v>7662</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4598</x:v>
@@ -738,7 +738,7 @@
         <x:v>1422</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14665</x:v>
+        <x:v>14664</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8684</x:v>
+        <x:v>8683</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5376</x:v>
@@ -796,7 +796,7 @@
         <x:v>1723</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16908</x:v>
+        <x:v>16907</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1144</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>718</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2424</x:v>
+        <x:v>2425</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1166</x:v>
+        <x:v>1167</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>768</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2512</x:v>
+        <x:v>2513</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6693</x:v>
+        <x:v>6694</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4332</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1312</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13384</x:v>
+        <x:v>13385</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7329</x:v>
+        <x:v>7330</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4866</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1459</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14752</x:v>
+        <x:v>14753</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>193</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>312</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>994</x:v>
+        <x:v>995</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>447</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>206</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>805</x:v>
+        <x:v>807</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>247</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>971</x:v>
+        <x:v>973</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1042,7 +1042,7 @@
         <x:v>833</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>64</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1641</x:v>
+        <x:v>1642</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1100,7 +1100,7 @@
         <x:v>1066</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>66</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2065</x:v>
+        <x:v>2066</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7410</x:v>
+        <x:v>7409</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2936</x:v>
+        <x:v>2935</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2520</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14143</x:v>
+        <x:v>14141</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7985</x:v>
+        <x:v>7984</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3062</x:v>
+        <x:v>3061</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2729</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15104</x:v>
+        <x:v>15102</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6694</x:v>
+        <x:v>6695</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4332</x:v>
@@ -1808,7 +1808,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1312</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
         <x:v>13385</x:v>
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7330</x:v>
+        <x:v>7331</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4866</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1459</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
         <x:v>14753</x:v>
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>206</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>808</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>247</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>973</x:v>
+        <x:v>974</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7662</x:v>
+        <x:v>7661</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4598</x:v>
@@ -735,7 +735,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1422</x:v>
+        <x:v>1423</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
         <x:v>14664</x:v>
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8683</x:v>
+        <x:v>8682</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5376</x:v>
@@ -793,7 +793,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1723</x:v>
+        <x:v>1724</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
         <x:v>16907</x:v>
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7409</x:v>
+        <x:v>7414</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2935</x:v>
+        <x:v>2934</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2520</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14141</x:v>
+        <x:v>14145</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7984</x:v>
+        <x:v>7989</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3061</x:v>
+        <x:v>3060</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2729</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15102</x:v>
+        <x:v>15106</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>6695</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4332</x:v>
+        <x:v>4331</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>204</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1311</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13385</x:v>
+        <x:v>13384</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7331</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4866</x:v>
+        <x:v>4865</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>219</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1458</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14753</x:v>
+        <x:v>14752</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>450</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>25</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>810</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>41</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,10 +2257,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>28</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>974</x:v>
+        <x:v>977</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6695</x:v>
+        <x:v>6696</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4331</x:v>
@@ -1808,7 +1808,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1311</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
         <x:v>13384</x:v>
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7331</x:v>
+        <x:v>7332</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4865</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1458</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
         <x:v>14752</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -897,7 +897,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>2</x:v>
@@ -912,7 +912,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -926,7 +926,7 @@
         <x:v>948</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>27</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1684</x:v>
+        <x:v>1683</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1825,7 +1825,7 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>15</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1368</x:v>
+        <x:v>1369</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7332</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4865</x:v>
+        <x:v>4866</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>219</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1457</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14752</x:v>
+        <x:v>14753</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1396,7 +1396,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>4</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2425</x:v>
+        <x:v>2426</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1454,7 +1454,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
         <x:v>4</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2513</x:v>
+        <x:v>2514</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6696</x:v>
+        <x:v>6697</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4331</x:v>
@@ -1808,7 +1808,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1310</x:v>
+        <x:v>1309</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
         <x:v>13384</x:v>
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7332</x:v>
+        <x:v>7333</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4866</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1457</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
         <x:v>14753</x:v>
@@ -1912,7 +1912,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>9</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1941,7 +1941,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>49</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>995</x:v>
+        <x:v>996</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -2376,7 +2376,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1112</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>73</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2378</x:v>
+        <x:v>2379</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>791</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1298</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>93</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2706</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7661</x:v>
+        <x:v>7662</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4598</x:v>
@@ -729,7 +729,7 @@
         <x:v>256</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>40</x:v>
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8682</x:v>
+        <x:v>8683</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5376</x:v>
@@ -787,7 +787,7 @@
         <x:v>296</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>786</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>43</x:v>
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7414</x:v>
+        <x:v>7408</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2934</x:v>
+        <x:v>2932</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1021</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>2520</x:v>
+        <x:v>2519</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14145</x:v>
+        <x:v>14135</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7989</x:v>
+        <x:v>7983</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3060</x:v>
+        <x:v>3058</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1052</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>2729</x:v>
+        <x:v>2728</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15106</x:v>
+        <x:v>15096</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1145</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>47</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2426</x:v>
+        <x:v>2427</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1167</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>50</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2514</x:v>
+        <x:v>2515</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>6697</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4331</x:v>
+        <x:v>4332</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>204</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1309</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13384</x:v>
+        <x:v>13385</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7333</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4866</x:v>
+        <x:v>4867</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>219</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14753</x:v>
+        <x:v>14754</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1902</x:v>
+        <x:v>1901</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>879</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2207</x:v>
+        <x:v>2206</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -723,7 +723,7 @@
         <x:v>7662</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4598</x:v>
+        <x:v>4599</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>256</x:v>
@@ -738,7 +738,7 @@
         <x:v>1423</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14664</x:v>
+        <x:v>14665</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8683</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5376</x:v>
+        <x:v>5377</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>296</x:v>
@@ -796,7 +796,7 @@
         <x:v>1724</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16907</x:v>
+        <x:v>16908</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>7408</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2932</x:v>
+        <x:v>2930</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2519</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14135</x:v>
+        <x:v>14133</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7983</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3058</x:v>
+        <x:v>3056</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2728</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15096</x:v>
+        <x:v>15094</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1924,10 +1924,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1953,10 +1953,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>996</x:v>
+        <x:v>997</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7662</x:v>
+        <x:v>7664</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4599</x:v>
@@ -738,7 +738,7 @@
         <x:v>1423</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14665</x:v>
+        <x:v>14667</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8683</x:v>
+        <x:v>8685</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5377</x:v>
@@ -796,7 +796,7 @@
         <x:v>1724</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16908</x:v>
+        <x:v>16910</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>863</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>408</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1501</x:v>
+        <x:v>1502</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>948</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>478</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1683</x:v>
+        <x:v>1684</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7408</x:v>
+        <x:v>7409</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2930</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2519</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14133</x:v>
+        <x:v>14134</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7983</x:v>
+        <x:v>7984</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3056</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2728</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15094</x:v>
+        <x:v>15095</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6697</x:v>
+        <x:v>6698</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4332</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1309</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13385</x:v>
+        <x:v>13386</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7333</x:v>
+        <x:v>7334</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4867</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14754</x:v>
+        <x:v>14755</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>864</x:v>
+        <x:v>865</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>408</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1502</x:v>
+        <x:v>1503</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>949</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>478</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1684</x:v>
+        <x:v>1685</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7664</x:v>
+        <x:v>7665</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4599</x:v>
@@ -738,7 +738,7 @@
         <x:v>1423</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14667</x:v>
+        <x:v>14668</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8685</x:v>
+        <x:v>8686</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5377</x:v>
@@ -796,7 +796,7 @@
         <x:v>1724</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16910</x:v>
+        <x:v>16911</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>865</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>408</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1503</x:v>
+        <x:v>1504</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>950</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>478</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1685</x:v>
+        <x:v>1686</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>157</x:v>
@@ -970,7 +970,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>679</x:v>
+        <x:v>681</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>165</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>694</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7665</x:v>
+        <x:v>7664</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4599</x:v>
@@ -738,7 +738,7 @@
         <x:v>1423</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14668</x:v>
+        <x:v>14667</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8686</x:v>
+        <x:v>8685</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5377</x:v>
@@ -796,7 +796,7 @@
         <x:v>1724</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16911</x:v>
+        <x:v>16910</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7409</x:v>
+        <x:v>7367</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2930</x:v>
+        <x:v>2911</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1020</x:v>
+        <x:v>1018</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>2519</x:v>
+        <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14134</x:v>
+        <x:v>14069</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7984</x:v>
+        <x:v>7942</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3056</x:v>
+        <x:v>3037</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1051</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>2728</x:v>
+        <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15095</x:v>
+        <x:v>15030</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6698</x:v>
+        <x:v>6697</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4332</x:v>
+        <x:v>4330</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>204</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1309</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13386</x:v>
+        <x:v>13383</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7334</x:v>
+        <x:v>7333</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4867</x:v>
+        <x:v>4865</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>219</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14755</x:v>
+        <x:v>14752</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1912,7 +1912,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>9</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1941,7 +1941,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>49</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>997</x:v>
+        <x:v>998</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1113</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2379</x:v>
+        <x:v>2378</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>791</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1299</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2706</x:v>
+        <x:v>2705</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7664</x:v>
+        <x:v>7665</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4599</x:v>
@@ -738,7 +738,7 @@
         <x:v>1423</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14667</x:v>
+        <x:v>14668</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8685</x:v>
+        <x:v>8686</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5377</x:v>
@@ -796,7 +796,7 @@
         <x:v>1724</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16910</x:v>
+        <x:v>16911</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>157</x:v>
@@ -970,7 +970,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>165</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>7367</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2911</x:v>
+        <x:v>2909</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14069</x:v>
+        <x:v>14067</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7942</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3037</x:v>
+        <x:v>3035</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15030</x:v>
+        <x:v>15028</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6697</x:v>
+        <x:v>6696</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4330</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1309</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13383</x:v>
+        <x:v>13382</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7333</x:v>
+        <x:v>7332</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4865</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14752</x:v>
+        <x:v>14751</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1901</x:v>
+        <x:v>1902</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2206</x:v>
+        <x:v>2207</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7665</x:v>
+        <x:v>7664</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4599</x:v>
@@ -735,7 +735,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1423</x:v>
+        <x:v>1424</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
         <x:v>14668</x:v>
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8686</x:v>
+        <x:v>8685</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5377</x:v>
@@ -793,7 +793,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1724</x:v>
+        <x:v>1725</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
         <x:v>16911</x:v>
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7367</x:v>
+        <x:v>7368</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2909</x:v>
+        <x:v>2908</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7942</x:v>
+        <x:v>7943</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3035</x:v>
+        <x:v>3034</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>719</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2427</x:v>
+        <x:v>2429</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1167</x:v>
+        <x:v>1169</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>769</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2515</x:v>
+        <x:v>2517</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,16 +1126,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7368</x:v>
+        <x:v>7365</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2908</x:v>
+        <x:v>2903</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1018</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>20</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14067</x:v>
+        <x:v>14058</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,16 +1184,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7943</x:v>
+        <x:v>7940</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3034</x:v>
+        <x:v>3029</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>21</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15028</x:v>
+        <x:v>15019</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1129,7 +1129,7 @@
         <x:v>7365</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2903</x:v>
+        <x:v>2902</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14058</x:v>
+        <x:v>14057</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7940</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3029</x:v>
+        <x:v>3028</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15019</x:v>
+        <x:v>15018</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1129,13 +1129,13 @@
         <x:v>7365</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2902</x:v>
+        <x:v>2899</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1017</x:v>
+        <x:v>1016</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>20</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14057</x:v>
+        <x:v>14053</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,13 +1187,13 @@
         <x:v>7940</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3028</x:v>
+        <x:v>3025</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>21</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15018</x:v>
+        <x:v>15014</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -735,10 +735,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1424</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14668</x:v>
+        <x:v>14669</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -793,10 +793,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1725</x:v>
+        <x:v>1726</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16911</x:v>
+        <x:v>16912</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>7365</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2899</x:v>
+        <x:v>2898</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14053</x:v>
+        <x:v>14052</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7940</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3025</x:v>
+        <x:v>3024</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15014</x:v>
+        <x:v>15013</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1796,10 +1796,10 @@
         <x:v>6696</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4330</x:v>
+        <x:v>4329</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
         <x:v>814</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1309</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13382</x:v>
+        <x:v>13380</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,10 +1854,10 @@
         <x:v>7332</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4865</x:v>
+        <x:v>4864</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>847</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14751</x:v>
+        <x:v>14749</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1982,10 +1982,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2040,10 +2040,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H53" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1039,7 +1039,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>833</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>471</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1642</x:v>
+        <x:v>1641</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1066</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>596</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2066</x:v>
+        <x:v>2065</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,13 +1126,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7365</x:v>
+        <x:v>7363</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2898</x:v>
+        <x:v>2893</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>1016</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>2517</x:v>
+        <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14052</x:v>
+        <x:v>14043</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,13 +1184,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7940</x:v>
+        <x:v>7938</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3024</x:v>
+        <x:v>3019</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>1047</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>2726</x:v>
+        <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15013</x:v>
+        <x:v>15004</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>6696</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4329</x:v>
+        <x:v>4328</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>203</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1309</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13380</x:v>
+        <x:v>13379</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7332</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4864</x:v>
+        <x:v>4863</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>218</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14749</x:v>
+        <x:v>14748</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1113</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2378</x:v>
+        <x:v>2377</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>790</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1299</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2704</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7363</x:v>
+        <x:v>7362</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2893</x:v>
+        <x:v>2891</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>235</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14043</x:v>
+        <x:v>14040</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7938</x:v>
+        <x:v>7937</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3019</x:v>
+        <x:v>3017</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>254</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15004</x:v>
+        <x:v>15001</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7362</x:v>
+        <x:v>7360</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2891</x:v>
+        <x:v>2890</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>235</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14040</x:v>
+        <x:v>14037</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7937</x:v>
+        <x:v>7935</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3017</x:v>
+        <x:v>3016</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>254</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>15001</x:v>
+        <x:v>14998</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1147</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>719</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2429</x:v>
+        <x:v>2430</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1169</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>769</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2517</x:v>
+        <x:v>2518</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>866</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>408</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1504</x:v>
+        <x:v>1505</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>951</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>478</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1687</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7360</x:v>
+        <x:v>7359</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2890</x:v>
+        <x:v>2891</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>235</x:v>
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7935</x:v>
+        <x:v>7934</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3016</x:v>
+        <x:v>3017</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>254</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>719</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2430</x:v>
+        <x:v>2432</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1170</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>769</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2518</x:v>
+        <x:v>2520</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>704</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1113</x:v>
+        <x:v>1114</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>73</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2377</x:v>
+        <x:v>2378</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>789</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1299</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>93</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2705</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>157</x:v>
@@ -970,7 +970,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>165</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7359</x:v>
+        <x:v>7360</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2891</x:v>
@@ -1135,7 +1135,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1016</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>20</x:v>
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7934</x:v>
+        <x:v>7935</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3017</x:v>
@@ -1193,7 +1193,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1129,7 +1129,7 @@
         <x:v>7360</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2891</x:v>
+        <x:v>2890</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>235</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14037</x:v>
+        <x:v>14036</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7935</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3017</x:v>
+        <x:v>3016</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>254</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14998</x:v>
+        <x:v>14997</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1138,13 +1138,13 @@
         <x:v>1015</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14036</x:v>
+        <x:v>14035</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1196,13 +1196,13 @@
         <x:v>1046</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14997</x:v>
+        <x:v>14996</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6696</x:v>
+        <x:v>6697</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4328</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1309</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13379</x:v>
+        <x:v>13380</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7332</x:v>
+        <x:v>7333</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4863</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14748</x:v>
+        <x:v>14749</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1902</x:v>
+        <x:v>1903</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>879</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2207</x:v>
+        <x:v>2208</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7360</x:v>
+        <x:v>7359</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2890</x:v>
+        <x:v>2887</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>235</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14035</x:v>
+        <x:v>14031</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7935</x:v>
+        <x:v>7934</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3016</x:v>
+        <x:v>3013</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>254</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14996</x:v>
+        <x:v>14992</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>6697</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4328</x:v>
+        <x:v>4327</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>203</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1309</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13380</x:v>
+        <x:v>13379</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7333</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4863</x:v>
+        <x:v>4862</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>218</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14749</x:v>
+        <x:v>14748</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>850</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1903</x:v>
+        <x:v>1904</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2208</x:v>
+        <x:v>2209</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -955,7 +955,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>21</x:v>
@@ -970,7 +970,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1013,7 +1013,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>21</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1150</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>47</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2432</x:v>
+        <x:v>2435</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1172</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>50</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2520</x:v>
+        <x:v>2523</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>15</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1369</x:v>
+        <x:v>1366</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7333</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4862</x:v>
+        <x:v>4859</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>218</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1456</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14748</x:v>
+        <x:v>14745</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>21</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>881</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>115</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2209</x:v>
+        <x:v>2208</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7664</x:v>
+        <x:v>7658</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4599</x:v>
@@ -738,7 +738,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14669</x:v>
+        <x:v>14663</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8685</x:v>
+        <x:v>8679</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5377</x:v>
@@ -796,7 +796,7 @@
         <x:v>1726</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16912</x:v>
+        <x:v>16906</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>867</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>408</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1505</x:v>
+        <x:v>1504</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>952</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>478</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1687</x:v>
+        <x:v>1686</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7359</x:v>
+        <x:v>7357</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2887</x:v>
+        <x:v>2886</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>235</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14031</x:v>
+        <x:v>14028</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7934</x:v>
+        <x:v>7932</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3013</x:v>
+        <x:v>3012</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>254</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14992</x:v>
+        <x:v>14989</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1793,13 +1793,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6697</x:v>
+        <x:v>6692</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4327</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
         <x:v>814</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1309</x:v>
+        <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13379</x:v>
+        <x:v>13371</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,13 +1851,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7333</x:v>
+        <x:v>7328</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4859</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>847</x:v>
@@ -1866,10 +1866,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>1456</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14745</x:v>
+        <x:v>14737</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1967,7 +1967,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>13</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2025,7 +2025,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>19</x:v>
@@ -2043,7 +2043,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7658</x:v>
+        <x:v>7657</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4599</x:v>
@@ -738,7 +738,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14663</x:v>
+        <x:v>14662</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1021</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>778</x:v>
@@ -767,7 +767,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2243</x:v>
+        <x:v>2242</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8679</x:v>
+        <x:v>8677</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5377</x:v>
@@ -796,7 +796,7 @@
         <x:v>1726</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16906</x:v>
+        <x:v>16904</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>832</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>471</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1641</x:v>
+        <x:v>1642</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1065</x:v>
+        <x:v>1066</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>596</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2065</x:v>
+        <x:v>2066</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,13 +1126,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7357</x:v>
+        <x:v>7358</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2886</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>1015</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14028</x:v>
+        <x:v>14030</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,13 +1184,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7932</x:v>
+        <x:v>7933</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3012</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>1046</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14989</x:v>
+        <x:v>14991</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>6692</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4327</x:v>
+        <x:v>4326</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>202</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13371</x:v>
+        <x:v>13370</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7328</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4859</x:v>
+        <x:v>4858</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>217</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14737</x:v>
+        <x:v>14736</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1135,7 +1135,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1015</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>19</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14030</x:v>
+        <x:v>14029</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1193,7 +1193,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1046</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>20</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14991</x:v>
+        <x:v>14990</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1802,7 +1802,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>814</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>29</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13370</x:v>
+        <x:v>13371</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1860,7 +1860,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>32</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14736</x:v>
+        <x:v>14737</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -723,7 +723,7 @@
         <x:v>7657</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4599</x:v>
+        <x:v>4598</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>256</x:v>
@@ -738,7 +738,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14662</x:v>
+        <x:v>14661</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8677</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5377</x:v>
+        <x:v>5376</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>296</x:v>
@@ -796,7 +796,7 @@
         <x:v>1726</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16904</x:v>
+        <x:v>16903</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>7358</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2886</x:v>
+        <x:v>2885</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14029</x:v>
+        <x:v>14028</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7933</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3012</x:v>
+        <x:v>3011</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14990</x:v>
+        <x:v>14989</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1402,10 +1402,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2435</x:v>
+        <x:v>2436</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1460,10 +1460,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2523</x:v>
+        <x:v>2524</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1129,7 +1129,7 @@
         <x:v>7358</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2885</x:v>
+        <x:v>2881</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14028</x:v>
+        <x:v>14024</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7933</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3011</x:v>
+        <x:v>3007</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14989</x:v>
+        <x:v>14985</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1802,7 +1802,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>29</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13371</x:v>
+        <x:v>13372</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1860,7 +1860,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>32</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14737</x:v>
+        <x:v>14738</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -723,7 +723,7 @@
         <x:v>7657</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4598</x:v>
+        <x:v>4599</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>256</x:v>
@@ -738,7 +738,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14661</x:v>
+        <x:v>14662</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8677</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5376</x:v>
+        <x:v>5377</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>296</x:v>
@@ -796,7 +796,7 @@
         <x:v>1726</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16903</x:v>
+        <x:v>16904</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>158</x:v>
@@ -970,7 +970,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>166</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6692</x:v>
+        <x:v>6693</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4326</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13372</x:v>
+        <x:v>13373</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7328</x:v>
+        <x:v>7329</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>4858</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14738</x:v>
+        <x:v>14739</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7657</x:v>
+        <x:v>7655</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4599</x:v>
+        <x:v>4598</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>256</x:v>
@@ -738,7 +738,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14662</x:v>
+        <x:v>14659</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8677</x:v>
+        <x:v>8675</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5377</x:v>
+        <x:v>5376</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>296</x:v>
@@ -796,7 +796,7 @@
         <x:v>1726</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16904</x:v>
+        <x:v>16901</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>866</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>408</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1504</x:v>
+        <x:v>1505</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>951</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>478</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1687</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7358</x:v>
+        <x:v>7356</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2881</x:v>
+        <x:v>2879</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14024</x:v>
+        <x:v>14020</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7933</x:v>
+        <x:v>7931</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3007</x:v>
+        <x:v>3005</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14985</x:v>
+        <x:v>14981</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>1150</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>722</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>47</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2436</x:v>
+        <x:v>2435</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1172</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>50</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2524</x:v>
+        <x:v>2523</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>6693</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4326</x:v>
+        <x:v>4327</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>202</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13373</x:v>
+        <x:v>13374</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7329</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4858</x:v>
+        <x:v>4859</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>217</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14739</x:v>
+        <x:v>14740</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1793,10 +1793,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6693</x:v>
+        <x:v>6694</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4327</x:v>
+        <x:v>4328</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>202</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13374</x:v>
+        <x:v>13376</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7329</x:v>
+        <x:v>7330</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4859</x:v>
+        <x:v>4860</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>217</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14740</x:v>
+        <x:v>14742</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7655</x:v>
+        <x:v>7656</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4598</x:v>
@@ -738,7 +738,7 @@
         <x:v>1425</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14659</x:v>
+        <x:v>14660</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8675</x:v>
+        <x:v>8676</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5376</x:v>
@@ -796,7 +796,7 @@
         <x:v>1726</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16901</x:v>
+        <x:v>16902</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7356</x:v>
+        <x:v>7355</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2879</x:v>
+        <x:v>2873</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>236</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14020</x:v>
+        <x:v>14013</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7931</x:v>
+        <x:v>7930</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3005</x:v>
+        <x:v>2999</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>255</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14981</x:v>
+        <x:v>14974</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>6694</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4328</x:v>
+        <x:v>4330</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>202</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13376</x:v>
+        <x:v>13378</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7330</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4860</x:v>
+        <x:v>4862</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>217</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14742</x:v>
+        <x:v>14744</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,13 +1126,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7355</x:v>
+        <x:v>7353</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2873</x:v>
+        <x:v>2869</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>1014</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2516</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14013</x:v>
+        <x:v>14006</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,13 +1184,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7930</x:v>
+        <x:v>7928</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2999</x:v>
+        <x:v>2995</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>1045</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2725</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14974</x:v>
+        <x:v>14967</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1799,7 +1799,7 @@
         <x:v>4330</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
         <x:v>816</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13378</x:v>
+        <x:v>13377</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1857,7 +1857,7 @@
         <x:v>4862</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>849</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14744</x:v>
+        <x:v>14743</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>450</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>25</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>810</x:v>
+        <x:v>809</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2260,7 +2260,7 @@
         <x:v>539</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>28</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>977</x:v>
+        <x:v>976</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2289,7 +2289,7 @@
         <x:v>851</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
         <x:v>94</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1904</x:v>
+        <x:v>1905</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>881</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>115</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2208</x:v>
+        <x:v>2209</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>704</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1114</x:v>
+        <x:v>1115</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>73</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2378</x:v>
+        <x:v>2379</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>789</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1300</x:v>
+        <x:v>1301</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>93</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2706</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,25 +720,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7656</x:v>
+        <x:v>7668</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4598</x:v>
+        <x:v>4607</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1425</x:v>
+        <x:v>1426</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14660</x:v>
+        <x:v>14685</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,10 +749,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1020</x:v>
+        <x:v>1021</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>40</x:v>
@@ -764,10 +764,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>2242</x:v>
+        <x:v>2245</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8676</x:v>
+        <x:v>8689</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5376</x:v>
+        <x:v>5386</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>785</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1726</x:v>
+        <x:v>1728</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16902</x:v>
+        <x:v>16930</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>867</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>408</x:v>
@@ -883,7 +883,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1505</x:v>
+        <x:v>1506</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>952</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>478</x:v>
@@ -941,7 +941,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1687</x:v>
+        <x:v>1688</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>158</x:v>
@@ -970,7 +970,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>684</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>166</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>697</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>125</x:v>
@@ -1077,7 +1077,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1066</x:v>
+        <x:v>1067</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>596</x:v>
@@ -1106,7 +1106,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>6</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2066</x:v>
+        <x:v>2068</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7353</x:v>
+        <x:v>7363</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2869</x:v>
+        <x:v>2874</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1014</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>2516</x:v>
+        <x:v>2518</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14006</x:v>
+        <x:v>14023</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1158,7 +1158,7 @@
         <x:v>575</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>19</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>962</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7928</x:v>
+        <x:v>7938</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2995</x:v>
+        <x:v>3001</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1045</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>2725</x:v>
+        <x:v>2727</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14967</x:v>
+        <x:v>14985</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>47</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2435</x:v>
+        <x:v>2437</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,10 +1445,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1172</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>50</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2523</x:v>
+        <x:v>2525</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6694</x:v>
+        <x:v>6695</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4330</x:v>
@@ -1811,7 +1811,7 @@
         <x:v>1307</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13377</x:v>
+        <x:v>13378</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>15</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>1366</x:v>
+        <x:v>1368</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,10 +1851,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>7330</x:v>
+        <x:v>7331</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>4862</x:v>
+        <x:v>4864</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>216</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>1454</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>14743</x:v>
+        <x:v>14746</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>450</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>207</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>808</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>248</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>976</x:v>
+        <x:v>975</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>851</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>603</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1905</x:v>
+        <x:v>1907</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>881</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>807</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2209</x:v>
+        <x:v>2211</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>704</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1115</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2379</x:v>
+        <x:v>2377</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>789</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1301</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2706</x:v>
+        <x:v>2704</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>158</x:v>
@@ -967,7 +967,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
         <x:v>684</x:v>
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>166</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
         <x:v>697</x:v>
@@ -1387,7 +1387,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1151</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>722</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>4</x:v>
@@ -1445,7 +1445,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1173</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>772</x:v>
@@ -1454,7 +1454,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
         <x:v>4</x:v>
@@ -1889,7 +1889,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>2</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>784</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1947,7 +1947,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>2</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>998</x:v>
+        <x:v>997</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -723,7 +723,7 @@
         <x:v>7668</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4607</x:v>
+        <x:v>4606</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>258</x:v>
@@ -738,7 +738,7 @@
         <x:v>1426</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14685</x:v>
+        <x:v>14684</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8689</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5386</x:v>
+        <x:v>5385</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>298</x:v>
@@ -796,7 +796,7 @@
         <x:v>1728</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16930</x:v>
+        <x:v>16929</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1889,7 +1889,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>2</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1947,7 +1947,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>2</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>997</x:v>
+        <x:v>998</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7363</x:v>
+        <x:v>7364</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2874</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2518</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14023</x:v>
+        <x:v>14024</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7938</x:v>
+        <x:v>7939</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3001</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2727</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14985</x:v>
+        <x:v>14986</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1115</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2377</x:v>
+        <x:v>2378</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1301</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2705</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7364</x:v>
+        <x:v>7366</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2874</x:v>
+        <x:v>2875</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>234</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2518</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14024</x:v>
+        <x:v>14027</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7939</x:v>
+        <x:v>7941</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3001</x:v>
+        <x:v>3002</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>253</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2727</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14986</x:v>
+        <x:v>14989</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>41</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>248</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>975</x:v>
+        <x:v>976</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7366</x:v>
+        <x:v>7363</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2875</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>2518</x:v>
+        <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14027</x:v>
+        <x:v>14023</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7941</x:v>
+        <x:v>7938</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3002</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>2727</x:v>
+        <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14989</x:v>
+        <x:v>14985</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>41</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>248</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>976</x:v>
+        <x:v>975</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2286,10 +2286,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>603</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
         <x:v>94</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1907</x:v>
+        <x:v>1905</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,10 +2344,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>883</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>115</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2211</x:v>
+        <x:v>2209</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -2228,7 +2228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>41</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>248</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>975</x:v>
+        <x:v>976</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7363</x:v>
+        <x:v>7362</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2875</x:v>
+        <x:v>2874</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>234</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14023</x:v>
+        <x:v>14021</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7938</x:v>
+        <x:v>7937</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3002</x:v>
+        <x:v>3001</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>253</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14985</x:v>
+        <x:v>14983</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1054,10 +1054,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1642</x:v>
+        <x:v>1643</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1112,10 +1112,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2068</x:v>
+        <x:v>2069</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,16 +1126,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7362</x:v>
+        <x:v>7358</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2874</x:v>
+        <x:v>2872</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>234</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>1015</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>19</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14021</x:v>
+        <x:v>14014</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,16 +1184,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7937</x:v>
+        <x:v>7933</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3001</x:v>
+        <x:v>2999</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>253</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>1046</x:v>
+        <x:v>1045</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>20</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14983</x:v>
+        <x:v>14976</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>703</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>1115</x:v>
+        <x:v>1116</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>73</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2378</x:v>
+        <x:v>2379</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2434,7 +2434,7 @@
         <x:v>788</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
-        <x:v>1301</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
         <x:v>93</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2706</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -2208,7 +2208,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>2</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>807</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2243,10 +2243,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2266,13 +2266,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
         <x:v>976</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -720,7 +720,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>7668</x:v>
+        <x:v>7669</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4606</x:v>
@@ -738,7 +738,7 @@
         <x:v>1426</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14684</x:v>
+        <x:v>14685</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>8689</x:v>
+        <x:v>8690</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>5385</x:v>
@@ -796,7 +796,7 @@
         <x:v>1728</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16929</x:v>
+        <x:v>16930</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7358</x:v>
+        <x:v>7357</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2872</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14014</x:v>
+        <x:v>14013</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7933</x:v>
+        <x:v>7932</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2999</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14976</x:v>
+        <x:v>14975</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1390,7 +1390,7 @@
         <x:v>1150</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>47</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2437</x:v>
+        <x:v>2438</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1448,7 +1448,7 @@
         <x:v>1172</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>50</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2525</x:v>
+        <x:v>2526</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1071,7 +1071,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1100,7 +1100,7 @@
         <x:v>1067</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>66</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2069</x:v>
+        <x:v>2070</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7357</x:v>
+        <x:v>7355</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>2872</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14013</x:v>
+        <x:v>14011</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>7932</x:v>
+        <x:v>7930</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>2999</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14975</x:v>
+        <x:v>14973</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>852</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>602</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1905</x:v>
+        <x:v>1906</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2344,7 +2344,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>882</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
         <x:v>806</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>2209</x:v>
+        <x:v>2210</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2373,7 +2373,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>1116</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>2379</x:v>
+        <x:v>2380</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -2431,7 +2431,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C67" s="1" t="n">
-        <x:v>788</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="D67" s="1" t="n">
         <x:v>1302</x:v>
@@ -2449,7 +2449,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="I67" s="1" t="n">
-        <x:v>2706</x:v>
+        <x:v>2707</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -735,10 +735,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1426</x:v>
+        <x:v>1427</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14685</x:v>
+        <x:v>14686</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -793,10 +793,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1728</x:v>
+        <x:v>1729</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16930</x:v>
+        <x:v>16931</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1129,7 +1129,7 @@
         <x:v>7355</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2872</x:v>
+        <x:v>2873</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>234</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14011</x:v>
+        <x:v>14012</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7930</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>2999</x:v>
+        <x:v>3000</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>253</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14973</x:v>
+        <x:v>14974</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1393,7 +1393,7 @@
         <x:v>723</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>162</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2438</x:v>
+        <x:v>2439</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1451,7 +1451,7 @@
         <x:v>773</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>163</x:v>
@@ -1463,7 +1463,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2526</x:v>
+        <x:v>2527</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1071,7 +1071,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
         <x:v>427</x:v>
@@ -1100,7 +1100,7 @@
         <x:v>1067</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>66</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
         <x:v>2070</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -723,7 +723,7 @@
         <x:v>7669</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4606</x:v>
+        <x:v>4605</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>258</x:v>
@@ -738,7 +738,7 @@
         <x:v>1427</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>14686</x:v>
+        <x:v>14685</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -781,7 +781,7 @@
         <x:v>8690</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>5385</x:v>
+        <x:v>5384</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>298</x:v>
@@ -796,7 +796,7 @@
         <x:v>1729</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>16931</x:v>
+        <x:v>16930</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -1129,7 +1129,7 @@
         <x:v>7355</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>2873</x:v>
+        <x:v>2871</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>234</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2517</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>14012</x:v>
+        <x:v>14010</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1187,7 +1187,7 @@
         <x:v>7930</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>3000</x:v>
+        <x:v>2998</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>253</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>2726</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14974</x:v>
+        <x:v>14972</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -313,10 +313,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2870</x:t>
+    <x:t>7354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2869</x:t>
   </x:si>
   <x:si>
     <x:t>1014</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14009</x:t>
+    <x:t>14007</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -343,10 +343,10 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7929</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2997</x:t>
+    <x:t>7928</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2996</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -358,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14970</x:t>
+    <x:t>14968</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -673,7 +673,7 @@
     <x:t>853</x:t>
   </x:si>
   <x:si>
-    <x:t>602</x:t>
+    <x:t>603</x:t>
   </x:si>
   <x:si>
     <x:t>115</x:t>
@@ -682,7 +682,7 @@
     <x:t>238</x:t>
   </x:si>
   <x:si>
-    <x:t>1906</x:t>
+    <x:t>1907</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -694,13 +694,13 @@
     <x:t>883</x:t>
   </x:si>
   <x:si>
-    <x:t>806</x:t>
+    <x:t>807</x:t>
   </x:si>
   <x:si>
     <x:t>275</x:t>
   </x:si>
   <x:si>
-    <x:t>2210</x:t>
+    <x:t>2211</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -676,31 +676,34 @@
     <x:t>603</x:t>
   </x:si>
   <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>807</x:t>
+  </x:si>
+  <x:si>
     <x:t>115</x:t>
   </x:si>
   <x:si>
-    <x:t>238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1907</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>883</x:t>
-  </x:si>
-  <x:si>
-    <x:t>807</x:t>
-  </x:si>
-  <x:si>
     <x:t>275</x:t>
   </x:si>
   <x:si>
-    <x:t>2211</x:t>
+    <x:t>2212</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -2971,36 +2974,36 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
         <x:v>151</x:v>
@@ -3009,15 +3012,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>18</x:v>
@@ -3026,7 +3029,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>64</x:v>
@@ -3038,27 +3041,27 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
         <x:v>30</x:v>
@@ -3070,7 +3073,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -313,7 +313,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7354</x:t>
+    <x:t>7351</x:t>
   </x:si>
   <x:si>
     <x:t>2869</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14007</x:t>
+    <x:t>14004</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -343,7 +343,7 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7928</x:t>
+    <x:t>7925</x:t>
   </x:si>
   <x:si>
     <x:t>2996</x:t>
@@ -358,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14968</x:t>
+    <x:t>14965</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -313,7 +313,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7351</x:t>
+    <x:t>7352</x:t>
   </x:si>
   <x:si>
     <x:t>2869</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14004</x:t>
+    <x:t>14005</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -343,7 +343,7 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7925</x:t>
+    <x:t>7926</x:t>
   </x:si>
   <x:si>
     <x:t>2996</x:t>
@@ -358,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14965</x:t>
+    <x:t>14966</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -505,10 +505,10 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>1308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13380</x:t>
+    <x:t>1309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13381</x:t>
   </x:si>
   <x:si>
     <x:t>636</x:t>
@@ -538,10 +538,10 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>1455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14748</x:t>
+    <x:t>1456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14749</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -313,10 +313,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2869</x:t>
+    <x:t>7354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2870</x:t>
   </x:si>
   <x:si>
     <x:t>1014</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14005</x:t>
+    <x:t>14008</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -343,10 +343,10 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7926</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2996</x:t>
+    <x:t>7928</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2997</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -358,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14966</x:t>
+    <x:t>14969</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -313,7 +313,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7354</x:t>
+    <x:t>7353</x:t>
   </x:si>
   <x:si>
     <x:t>2870</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14008</x:t>
+    <x:t>14007</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -343,7 +343,7 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7928</x:t>
+    <x:t>7927</x:t>
   </x:si>
   <x:si>
     <x:t>2997</x:t>
@@ -358,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14969</x:t>
+    <x:t>14968</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -610,10 +610,10 @@
     <x:t>114</x:t>
   </x:si>
   <x:si>
-    <x:t>434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>618</x:t>
+    <x:t>430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614</x:t>
   </x:si>
   <x:si>
     <x:t>212</x:t>
@@ -625,121 +625,121 @@
     <x:t>133</x:t>
   </x:si>
   <x:si>
-    <x:t>646</x:t>
+    <x:t>642</x:t>
   </x:si>
   <x:si>
     <x:t>46</x:t>
   </x:si>
   <x:si>
-    <x:t>869</x:t>
+    <x:t>865</x:t>
   </x:si>
   <x:si>
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
+    <x:t>448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>853</x:t>
+  </x:si>
+  <x:si>
+    <x:t>603</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>327</x:t>
+  </x:si>
+  <x:si>
+    <x:t>789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
     <x:t>449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>808</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>539</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>977</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>853</x:t>
-  </x:si>
-  <x:si>
-    <x:t>603</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1908</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>883</x:t>
-  </x:si>
-  <x:si>
-    <x:t>807</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>704</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>789</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
   </x:si>
   <x:si>
     <x:t>2707</x:t>
@@ -2971,10 +2971,10 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="E64" s="1" t="s">
         <x:v>226</x:v>
-      </x:c>
-      <x:c r="E64" s="1" t="s">
-        <x:v>227</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>91</x:v>
@@ -2983,27 +2983,27 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="I64" s="1" t="s">
         <x:v>228</x:v>
-      </x:c>
-      <x:c r="I64" s="1" t="s">
-        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="D65" s="1" t="s">
+      <x:c r="E65" s="1" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="E65" s="1" t="s">
-        <x:v>233</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
         <x:v>151</x:v>
@@ -3012,15 +3012,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="I65" s="1" t="s">
         <x:v>234</x:v>
-      </x:c>
-      <x:c r="I65" s="1" t="s">
-        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>18</x:v>
@@ -3029,7 +3029,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>64</x:v>
@@ -3041,27 +3041,27 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="I66" s="1" t="s">
         <x:v>237</x:v>
-      </x:c>
-      <x:c r="I66" s="1" t="s">
-        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D67" s="1" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="D67" s="1" t="s">
+      <x:c r="E67" s="1" t="s">
         <x:v>240</x:v>
-      </x:c>
-      <x:c r="E67" s="1" t="s">
-        <x:v>241</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
         <x:v>30</x:v>
@@ -3070,7 +3070,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
         <x:v>242</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -313,10 +313,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7353</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2870</x:t>
+    <x:t>7349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2869</x:t>
   </x:si>
   <x:si>
     <x:t>1014</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14007</x:t>
+    <x:t>14002</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -343,10 +343,10 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7927</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2997</x:t>
+    <x:t>7923</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2996</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -358,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14968</x:t>
+    <x:t>14963</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -670,10 +670,10 @@
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>853</x:t>
-  </x:si>
-  <x:si>
-    <x:t>603</x:t>
+    <x:t>854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>607</x:t>
   </x:si>
   <x:si>
     <x:t>116</x:t>
@@ -682,7 +682,7 @@
     <x:t>238</x:t>
   </x:si>
   <x:si>
-    <x:t>1908</x:t>
+    <x:t>1913</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -691,7 +691,10 @@
     <x:t>304</x:t>
   </x:si>
   <x:si>
-    <x:t>883</x:t>
+    <x:t>884</x:t>
+  </x:si>
+  <x:si>
+    <x:t>811</x:t>
   </x:si>
   <x:si>
     <x:t>115</x:t>
@@ -700,7 +703,7 @@
     <x:t>275</x:t>
   </x:si>
   <x:si>
-    <x:t>2212</x:t>
+    <x:t>2217</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -2971,10 +2974,10 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>91</x:v>
@@ -2983,27 +2986,27 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
         <x:v>151</x:v>
@@ -3012,15 +3015,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>18</x:v>
@@ -3029,7 +3032,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>64</x:v>
@@ -3041,27 +3044,27 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
         <x:v>30</x:v>
@@ -3070,10 +3073,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -640,13 +640,10 @@
     <x:t>448</x:t>
   </x:si>
   <x:si>
-    <x:t>208</x:t>
-  </x:si>
-  <x:si>
     <x:t>99</x:t>
   </x:si>
   <x:si>
-    <x:t>807</x:t>
+    <x:t>808</x:t>
   </x:si>
   <x:si>
     <x:t>90</x:t>
@@ -661,10 +658,10 @@
     <x:t>538</x:t>
   </x:si>
   <x:si>
-    <x:t>249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>976</x:t>
+    <x:t>250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>977</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -673,7 +670,7 @@
     <x:t>854</x:t>
   </x:si>
   <x:si>
-    <x:t>607</x:t>
+    <x:t>608</x:t>
   </x:si>
   <x:si>
     <x:t>116</x:t>
@@ -682,7 +679,7 @@
     <x:t>238</x:t>
   </x:si>
   <x:si>
-    <x:t>1913</x:t>
+    <x:t>1914</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -694,7 +691,7 @@
     <x:t>884</x:t>
   </x:si>
   <x:si>
-    <x:t>811</x:t>
+    <x:t>812</x:t>
   </x:si>
   <x:si>
     <x:t>115</x:t>
@@ -703,7 +700,7 @@
     <x:t>275</x:t>
   </x:si>
   <x:si>
-    <x:t>2217</x:t>
+    <x:t>2218</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -2829,7 +2826,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>58</x:v>
@@ -2841,10 +2838,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="I59" s="1" t="s">
         <x:v>209</x:v>
-      </x:c>
-      <x:c r="I59" s="1" t="s">
-        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2855,7 +2852,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>21</x:v>
@@ -2864,7 +2861,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>15</x:v>
@@ -2873,7 +2870,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2884,10 +2881,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
         <x:v>214</x:v>
-      </x:c>
-      <x:c r="D61" s="1" t="s">
-        <x:v>215</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>25</x:v>
@@ -2902,41 +2899,41 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
         <x:v>218</x:v>
-      </x:c>
-      <x:c r="D62" s="1" t="s">
-        <x:v>219</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="I62" s="1" t="s">
         <x:v>221</x:v>
-      </x:c>
-      <x:c r="I62" s="1" t="s">
-        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>18</x:v>
@@ -2945,7 +2942,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>16</x:v>
@@ -2960,24 +2957,24 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="D64" s="1" t="s">
+      <x:c r="E64" s="1" t="s">
         <x:v>226</x:v>
-      </x:c>
-      <x:c r="E64" s="1" t="s">
-        <x:v>227</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>91</x:v>
@@ -2986,27 +2983,27 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="I64" s="1" t="s">
         <x:v>228</x:v>
-      </x:c>
-      <x:c r="I64" s="1" t="s">
-        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="D65" s="1" t="s">
+      <x:c r="E65" s="1" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="E65" s="1" t="s">
-        <x:v>233</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
         <x:v>151</x:v>
@@ -3015,15 +3012,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="I65" s="1" t="s">
         <x:v>234</x:v>
-      </x:c>
-      <x:c r="I65" s="1" t="s">
-        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>18</x:v>
@@ -3032,7 +3029,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>64</x:v>
@@ -3044,27 +3041,27 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="I66" s="1" t="s">
         <x:v>237</x:v>
-      </x:c>
-      <x:c r="I66" s="1" t="s">
-        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D67" s="1" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="D67" s="1" t="s">
+      <x:c r="E67" s="1" t="s">
         <x:v>240</x:v>
-      </x:c>
-      <x:c r="E67" s="1" t="s">
-        <x:v>241</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
         <x:v>30</x:v>
@@ -3073,10 +3070,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="I67" s="1" t="s">
         <x:v>242</x:v>
-      </x:c>
-      <x:c r="I67" s="1" t="s">
-        <x:v>243</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -142,7 +142,7 @@
     <x:t>14684</x:t>
   </x:si>
   <x:si>
-    <x:t>1021</x:t>
+    <x:t>1018</x:t>
   </x:si>
   <x:si>
     <x:t>779</x:t>
@@ -154,10 +154,10 @@
     <x:t>302</x:t>
   </x:si>
   <x:si>
-    <x:t>2245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8690</x:t>
+    <x:t>2242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8687</x:t>
   </x:si>
   <x:si>
     <x:t>5384</x:t>
@@ -175,7 +175,7 @@
     <x:t>1728</x:t>
   </x:si>
   <x:si>
-    <x:t>16929</x:t>
+    <x:t>16926</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -187,7 +187,7 @@
     <x:t>868</x:t>
   </x:si>
   <x:si>
-    <x:t>408</x:t>
+    <x:t>409</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
@@ -199,7 +199,7 @@
     <x:t>132</x:t>
   </x:si>
   <x:si>
-    <x:t>1506</x:t>
+    <x:t>1507</x:t>
   </x:si>
   <x:si>
     <x:t>85</x:t>
@@ -217,7 +217,7 @@
     <x:t>953</x:t>
   </x:si>
   <x:si>
-    <x:t>478</x:t>
+    <x:t>479</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
@@ -229,7 +229,7 @@
     <x:t>152</x:t>
   </x:si>
   <x:si>
-    <x:t>1688</x:t>
+    <x:t>1689</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -271,7 +271,7 @@
     <x:t>833</x:t>
   </x:si>
   <x:si>
-    <x:t>471</x:t>
+    <x:t>474</x:t>
   </x:si>
   <x:si>
     <x:t>64</x:t>
@@ -283,7 +283,7 @@
     <x:t>174</x:t>
   </x:si>
   <x:si>
-    <x:t>1643</x:t>
+    <x:t>1646</x:t>
   </x:si>
   <x:si>
     <x:t>234</x:t>
@@ -298,7 +298,7 @@
     <x:t>1067</x:t>
   </x:si>
   <x:si>
-    <x:t>598</x:t>
+    <x:t>601</x:t>
   </x:si>
   <x:si>
     <x:t>110</x:t>
@@ -307,13 +307,13 @@
     <x:t>223</x:t>
   </x:si>
   <x:si>
-    <x:t>2070</x:t>
+    <x:t>2073</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7349</x:t>
+    <x:t>7348</x:t>
   </x:si>
   <x:si>
     <x:t>2869</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14002</x:t>
+    <x:t>14001</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -343,7 +343,7 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7923</x:t>
+    <x:t>7922</x:t>
   </x:si>
   <x:si>
     <x:t>2996</x:t>
@@ -358,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14963</x:t>
+    <x:t>14962</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -493,7 +493,7 @@
     <x:t>6695</x:t>
   </x:si>
   <x:si>
-    <x:t>4331</x:t>
+    <x:t>4334</x:t>
   </x:si>
   <x:si>
     <x:t>201</x:t>
@@ -508,7 +508,7 @@
     <x:t>1309</x:t>
   </x:si>
   <x:si>
-    <x:t>13381</x:t>
+    <x:t>13384</x:t>
   </x:si>
   <x:si>
     <x:t>636</x:t>
@@ -526,7 +526,7 @@
     <x:t>7331</x:t>
   </x:si>
   <x:si>
-    <x:t>4865</x:t>
+    <x:t>4868</x:t>
   </x:si>
   <x:si>
     <x:t>216</x:t>
@@ -541,7 +541,7 @@
     <x:t>1456</x:t>
   </x:si>
   <x:si>
-    <x:t>14749</x:t>
+    <x:t>14752</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -637,13 +637,13 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>448</x:t>
+    <x:t>449</x:t>
   </x:si>
   <x:si>
     <x:t>99</x:t>
   </x:si>
   <x:si>
-    <x:t>808</x:t>
+    <x:t>809</x:t>
   </x:si>
   <x:si>
     <x:t>90</x:t>
@@ -655,13 +655,13 @@
     <x:t>169</x:t>
   </x:si>
   <x:si>
-    <x:t>538</x:t>
+    <x:t>539</x:t>
   </x:si>
   <x:si>
     <x:t>250</x:t>
   </x:si>
   <x:si>
-    <x:t>977</x:t>
+    <x:t>978</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -721,16 +721,16 @@
     <x:t>2380</x:t>
   </x:si>
   <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
     <x:t>186</x:t>
   </x:si>
   <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>789</x:t>
+    <x:t>328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>788</x:t>
   </x:si>
   <x:si>
     <x:t>1302</x:t>
@@ -739,10 +739,10 @@
     <x:t>93</x:t>
   </x:si>
   <x:si>
-    <x:t>449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2707</x:t>
+    <x:t>451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2708</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3026,10 +3026,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>64</x:v>
@@ -3041,7 +3041,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H66" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
         <x:v>237</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -124,7 +124,7 @@
     <x:t>7669</x:t>
   </x:si>
   <x:si>
-    <x:t>4605</x:t>
+    <x:t>4606</x:t>
   </x:si>
   <x:si>
     <x:t>258</x:t>
@@ -139,7 +139,7 @@
     <x:t>1426</x:t>
   </x:si>
   <x:si>
-    <x:t>14684</x:t>
+    <x:t>14685</x:t>
   </x:si>
   <x:si>
     <x:t>1018</x:t>
@@ -160,7 +160,7 @@
     <x:t>8687</x:t>
   </x:si>
   <x:si>
-    <x:t>5384</x:t>
+    <x:t>5385</x:t>
   </x:si>
   <x:si>
     <x:t>298</x:t>
@@ -175,7 +175,7 @@
     <x:t>1728</x:t>
   </x:si>
   <x:si>
-    <x:t>16926</x:t>
+    <x:t>16927</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -316,7 +316,7 @@
     <x:t>7348</x:t>
   </x:si>
   <x:si>
-    <x:t>2869</x:t>
+    <x:t>2870</x:t>
   </x:si>
   <x:si>
     <x:t>1014</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14001</x:t>
+    <x:t>14002</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -346,7 +346,7 @@
     <x:t>7922</x:t>
   </x:si>
   <x:si>
-    <x:t>2996</x:t>
+    <x:t>2997</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -358,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14962</x:t>
+    <x:t>14963</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -121,10 +121,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7669</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4606</x:t>
+    <x:t>7670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4607</x:t>
   </x:si>
   <x:si>
     <x:t>258</x:t>
@@ -139,7 +139,7 @@
     <x:t>1426</x:t>
   </x:si>
   <x:si>
-    <x:t>14685</x:t>
+    <x:t>14687</x:t>
   </x:si>
   <x:si>
     <x:t>1018</x:t>
@@ -157,10 +157,10 @@
     <x:t>2242</x:t>
   </x:si>
   <x:si>
-    <x:t>8687</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5385</x:t>
+    <x:t>8688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5386</x:t>
   </x:si>
   <x:si>
     <x:t>298</x:t>
@@ -175,7 +175,7 @@
     <x:t>1728</x:t>
   </x:si>
   <x:si>
-    <x:t>16927</x:t>
+    <x:t>16929</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -205,19 +205,16 @@
     <x:t>85</x:t>
   </x:si>
   <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>182</x:t>
+    <x:t>183</x:t>
   </x:si>
   <x:si>
     <x:t>953</x:t>
   </x:si>
   <x:si>
-    <x:t>479</x:t>
+    <x:t>480</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
@@ -229,7 +226,7 @@
     <x:t>152</x:t>
   </x:si>
   <x:si>
-    <x:t>1689</x:t>
+    <x:t>1690</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -268,7 +265,7 @@
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
   </x:si>
   <x:si>
-    <x:t>833</x:t>
+    <x:t>834</x:t>
   </x:si>
   <x:si>
     <x:t>474</x:t>
@@ -283,7 +280,7 @@
     <x:t>174</x:t>
   </x:si>
   <x:si>
-    <x:t>1646</x:t>
+    <x:t>1647</x:t>
   </x:si>
   <x:si>
     <x:t>234</x:t>
@@ -295,7 +292,7 @@
     <x:t>49</x:t>
   </x:si>
   <x:si>
-    <x:t>1067</x:t>
+    <x:t>1068</x:t>
   </x:si>
   <x:si>
     <x:t>601</x:t>
@@ -307,16 +304,16 @@
     <x:t>223</x:t>
   </x:si>
   <x:si>
-    <x:t>2073</x:t>
+    <x:t>2074</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7348</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2870</x:t>
+    <x:t>7346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2872</x:t>
   </x:si>
   <x:si>
     <x:t>1014</x:t>
@@ -343,10 +340,10 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7922</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2997</x:t>
+    <x:t>7920</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2999</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
@@ -490,10 +487,10 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>6695</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4334</x:t>
+    <x:t>6696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4335</x:t>
   </x:si>
   <x:si>
     <x:t>201</x:t>
@@ -508,7 +505,7 @@
     <x:t>1309</x:t>
   </x:si>
   <x:si>
-    <x:t>13384</x:t>
+    <x:t>13386</x:t>
   </x:si>
   <x:si>
     <x:t>636</x:t>
@@ -523,10 +520,10 @@
     <x:t>1368</x:t>
   </x:si>
   <x:si>
-    <x:t>7331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4868</x:t>
+    <x:t>7332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4869</x:t>
   </x:si>
   <x:si>
     <x:t>216</x:t>
@@ -541,7 +538,7 @@
     <x:t>1456</x:t>
   </x:si>
   <x:si>
-    <x:t>14752</x:t>
+    <x:t>14754</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -667,7 +664,7 @@
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>854</x:t>
+    <x:t>855</x:t>
   </x:si>
   <x:si>
     <x:t>608</x:t>
@@ -679,7 +676,7 @@
     <x:t>238</x:t>
   </x:si>
   <x:si>
-    <x:t>1914</x:t>
+    <x:t>1915</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -688,7 +685,7 @@
     <x:t>304</x:t>
   </x:si>
   <x:si>
-    <x:t>884</x:t>
+    <x:t>885</x:t>
   </x:si>
   <x:si>
     <x:t>812</x:t>
@@ -700,7 +697,7 @@
     <x:t>275</x:t>
   </x:si>
   <x:si>
-    <x:t>2218</x:t>
+    <x:t>2219</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -1521,7 +1518,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>29</x:v>
@@ -1533,10 +1530,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="s">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1547,59 +1544,59 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>68</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="s">
-        <x:v>69</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="I15" s="1" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="I15" s="1" t="s">
-        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="s">
-        <x:v>74</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I16" s="1" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="s">
-        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>18</x:v>
@@ -1623,224 +1620,224 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="E19" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="E19" s="1" t="s">
+      <x:c r="F19" s="1" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>91</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="D21" s="1" t="s">
-        <x:v>94</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
+      <x:c r="G22" s="1" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="G22" s="1" t="s">
+      <x:c r="H22" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="H22" s="1" t="s">
+      <x:c r="I22" s="1" t="s">
         <x:v>103</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="s">
         <x:v>105</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E23" s="1" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F23" s="1" t="s">
-        <x:v>106</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I23" s="1" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="I23" s="1" t="s">
-        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="E24" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="F24" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="F24" s="1" t="s">
+      <x:c r="G24" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H24" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="G24" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H24" s="1" t="s">
+      <x:c r="I24" s="1" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>29</x:v>
@@ -1855,12 +1852,12 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>18</x:v>
@@ -1884,21 +1881,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>29</x:v>
@@ -1910,15 +1907,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I27" s="1" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="I27" s="1" t="s">
-        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1947,7 +1944,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>18</x:v>
@@ -1976,7 +1973,7 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>20</x:v>
@@ -2005,45 +2002,45 @@
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="F31" s="1" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I31" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="I31" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>13</x:v>
@@ -2055,44 +2052,44 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D33" s="1" t="s">
+      <x:c r="E33" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="s">
         <x:v>134</x:v>
-      </x:c>
-      <x:c r="E33" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>135</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="I33" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="I33" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>10</x:v>
@@ -2121,7 +2118,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>20</x:v>
@@ -2150,36 +2147,36 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="D36" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="G36" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H36" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="I36" s="1" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="G36" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H36" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="I36" s="1" t="s">
-        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>18</x:v>
@@ -2188,7 +2185,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>15</x:v>
@@ -2203,50 +2200,50 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="D38" s="1" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G38" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H38" s="1" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="G38" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H38" s="1" t="s">
+      <x:c r="I38" s="1" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="I38" s="1" t="s">
-        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>32</x:v>
@@ -2258,15 +2255,15 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="I39" s="1" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="I39" s="1" t="s">
-        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>18</x:v>
@@ -2295,16 +2292,16 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>32</x:v>
@@ -2316,24 +2313,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
         <x:v>154</x:v>
-      </x:c>
-      <x:c r="D42" s="1" t="s">
-        <x:v>155</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>32</x:v>
@@ -2345,7 +2342,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
         <x:v>33</x:v>
@@ -2353,7 +2350,7 @@
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>18</x:v>
@@ -2382,7 +2379,7 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>20</x:v>
@@ -2391,7 +2388,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>32</x:v>
@@ -2403,140 +2400,140 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
+      <x:c r="H45" s="1" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="H45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>163</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
-        <x:v>166</x:v>
-      </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="I46" s="1" t="s">
         <x:v>167</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D47" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="D47" s="1" t="s">
+      <x:c r="E47" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="E47" s="1" t="s">
+      <x:c r="F47" s="1" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="F47" s="1" t="s">
+      <x:c r="G47" s="1" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="G47" s="1" t="s">
+      <x:c r="H47" s="1" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="H47" s="1" t="s">
+      <x:c r="I47" s="1" t="s">
         <x:v>174</x:v>
-      </x:c>
-      <x:c r="I47" s="1" t="s">
-        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
         <x:v>177</x:v>
-      </x:c>
-      <x:c r="D48" s="1" t="s">
-        <x:v>178</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="I48" s="1" t="s">
         <x:v>179</x:v>
-      </x:c>
-      <x:c r="I48" s="1" t="s">
-        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D49" s="1" t="s">
         <x:v>181</x:v>
-      </x:c>
-      <x:c r="D49" s="1" t="s">
-        <x:v>182</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>12</x:v>
@@ -2548,53 +2545,53 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="I49" s="1" t="s">
         <x:v>183</x:v>
-      </x:c>
-      <x:c r="I49" s="1" t="s">
-        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="D50" s="1" t="s">
+      <x:c r="E50" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F50" s="1" t="s">
         <x:v>186</x:v>
-      </x:c>
-      <x:c r="E50" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F50" s="1" t="s">
-        <x:v>187</x:v>
       </x:c>
       <x:c r="G50" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="I50" s="1" t="s">
         <x:v>188</x:v>
-      </x:c>
-      <x:c r="I50" s="1" t="s">
-        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
         <x:v>19</x:v>
@@ -2606,15 +2603,15 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>18</x:v>
@@ -2643,16 +2640,16 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
         <x:v>19</x:v>
@@ -2664,15 +2661,15 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H53" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
@@ -2681,7 +2678,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>19</x:v>
@@ -2696,12 +2693,12 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>20</x:v>
@@ -2710,7 +2707,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
         <x:v>19</x:v>
@@ -2725,27 +2722,27 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="D56" s="1" t="s">
         <x:v>197</x:v>
-      </x:c>
-      <x:c r="D56" s="1" t="s">
-        <x:v>198</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>14</x:v>
@@ -2754,21 +2751,21 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>32</x:v>
@@ -2783,50 +2780,50 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="D58" s="1" t="s">
-        <x:v>203</x:v>
-      </x:c>
       <x:c r="E58" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="I58" s="1" t="s">
         <x:v>204</x:v>
-      </x:c>
-      <x:c r="I58" s="1" t="s">
-        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>58</x:v>
@@ -2838,21 +2835,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="I59" s="1" t="s">
         <x:v>208</x:v>
-      </x:c>
-      <x:c r="I59" s="1" t="s">
-        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>21</x:v>
@@ -2861,7 +2858,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>15</x:v>
@@ -2870,70 +2867,70 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="D61" s="1" t="s">
-        <x:v>214</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D62" s="1" t="s">
+      <x:c r="E62" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="F62" s="1" t="s">
         <x:v>218</x:v>
-      </x:c>
-      <x:c r="E62" s="1" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="F62" s="1" t="s">
-        <x:v>219</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="I62" s="1" t="s">
         <x:v>220</x:v>
-      </x:c>
-      <x:c r="I62" s="1" t="s">
-        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>18</x:v>
@@ -2942,13 +2939,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>14</x:v>
@@ -2957,82 +2954,82 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="D64" s="1" t="s">
+      <x:c r="E64" s="1" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="E64" s="1" t="s">
-        <x:v>226</x:v>
-      </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="I64" s="1" t="s">
         <x:v>227</x:v>
-      </x:c>
-      <x:c r="I64" s="1" t="s">
-        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="D65" s="1" t="s">
+      <x:c r="E65" s="1" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="E65" s="1" t="s">
-        <x:v>232</x:v>
-      </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="I65" s="1" t="s">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="I65" s="1" t="s">
-        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="D66" s="1" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="D66" s="1" t="s">
-        <x:v>236</x:v>
-      </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
         <x:v>26</x:v>
@@ -3044,24 +3041,24 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D67" s="1" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="D67" s="1" t="s">
+      <x:c r="E67" s="1" t="s">
         <x:v>239</x:v>
-      </x:c>
-      <x:c r="E67" s="1" t="s">
-        <x:v>240</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
         <x:v>30</x:v>
@@ -3070,10 +3067,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="I67" s="1" t="s">
         <x:v>241</x:v>
-      </x:c>
-      <x:c r="I67" s="1" t="s">
-        <x:v>242</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -310,12 +310,15 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7346</x:t>
+    <x:t>7345</x:t>
   </x:si>
   <x:si>
     <x:t>2872</x:t>
   </x:si>
   <x:si>
+    <x:t>233</x:t>
+  </x:si>
+  <x:si>
     <x:t>1014</x:t>
   </x:si>
   <x:si>
@@ -325,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14002</x:t>
+    <x:t>14000</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -340,13 +343,13 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7920</x:t>
+    <x:t>7919</x:t>
   </x:si>
   <x:si>
     <x:t>2999</x:t>
   </x:si>
   <x:si>
-    <x:t>253</x:t>
+    <x:t>252</x:t>
   </x:si>
   <x:si>
     <x:t>1045</x:t>
@@ -355,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14963</x:t>
+    <x:t>14961</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -1753,19 +1756,19 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1776,25 +1779,25 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1805,36 +1808,36 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
         <x:v>67</x:v>
@@ -1852,12 +1855,12 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>18</x:v>
@@ -1881,21 +1884,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>29</x:v>
@@ -1907,15 +1910,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1944,7 +1947,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>18</x:v>
@@ -1973,7 +1976,7 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>20</x:v>
@@ -2002,45 +2005,45 @@
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>13</x:v>
@@ -2052,44 +2055,44 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I33" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>10</x:v>
@@ -2118,7 +2121,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>20</x:v>
@@ -2147,36 +2150,36 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>18</x:v>
@@ -2185,7 +2188,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>15</x:v>
@@ -2205,36 +2208,36 @@
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2255,15 +2258,15 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>18</x:v>
@@ -2292,13 +2295,13 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>63</x:v>
@@ -2313,24 +2316,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>32</x:v>
@@ -2350,7 +2353,7 @@
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>18</x:v>
@@ -2379,7 +2382,7 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>20</x:v>
@@ -2388,7 +2391,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>32</x:v>
@@ -2403,108 +2406,108 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>39</x:v>
@@ -2516,24 +2519,24 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>12</x:v>
@@ -2545,50 +2548,50 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="F50" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G50" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>77</x:v>
@@ -2606,12 +2609,12 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>18</x:v>
@@ -2640,16 +2643,16 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
         <x:v>19</x:v>
@@ -2661,15 +2664,15 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H53" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
@@ -2693,12 +2696,12 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>20</x:v>
@@ -2722,21 +2725,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>32</x:v>
@@ -2751,21 +2754,21 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>32</x:v>
@@ -2780,50 +2783,50 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>58</x:v>
@@ -2835,21 +2838,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>21</x:v>
@@ -2858,7 +2861,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>15</x:v>
@@ -2867,27 +2870,27 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>29</x:v>
@@ -2896,41 +2899,41 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>18</x:v>
@@ -2939,13 +2942,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>14</x:v>
@@ -2954,24 +2957,24 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>90</x:v>
@@ -2980,53 +2983,53 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>63</x:v>
@@ -3041,24 +3044,24 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
         <x:v>30</x:v>
@@ -3067,10 +3070,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -310,13 +310,13 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233</x:t>
+    <x:t>7344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232</x:t>
   </x:si>
   <x:si>
     <x:t>1014</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>14000</x:t>
+    <x:t>13997</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -343,13 +343,13 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7919</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>252</x:t>
+    <x:t>7918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>251</x:t>
   </x:si>
   <x:si>
     <x:t>1045</x:t>
@@ -358,7 +358,7 @@
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14961</x:t>
+    <x:t>14958</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -617,9 +617,6 @@
   </x:si>
   <x:si>
     <x:t>212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>251</x:t>
   </x:si>
   <x:si>
     <x:t>133</x:t>
@@ -2783,7 +2780,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2794,10 +2791,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
         <x:v>202</x:v>
-      </x:c>
-      <x:c r="D58" s="1" t="s">
-        <x:v>203</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>142</x:v>
@@ -2809,21 +2806,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="I58" s="1" t="s">
         <x:v>204</x:v>
-      </x:c>
-      <x:c r="I58" s="1" t="s">
-        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
         <x:v>107</x:v>
@@ -2838,21 +2835,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="I59" s="1" t="s">
         <x:v>208</x:v>
-      </x:c>
-      <x:c r="I59" s="1" t="s">
-        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>21</x:v>
@@ -2861,7 +2858,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>15</x:v>
@@ -2870,21 +2867,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="D61" s="1" t="s">
-        <x:v>214</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>25</x:v>
@@ -2899,41 +2896,41 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
         <x:v>217</x:v>
-      </x:c>
-      <x:c r="D62" s="1" t="s">
-        <x:v>218</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="I62" s="1" t="s">
         <x:v>220</x:v>
-      </x:c>
-      <x:c r="I62" s="1" t="s">
-        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>18</x:v>
@@ -2942,7 +2939,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>16</x:v>
@@ -2957,24 +2954,24 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="D64" s="1" t="s">
+      <x:c r="E64" s="1" t="s">
         <x:v>225</x:v>
-      </x:c>
-      <x:c r="E64" s="1" t="s">
-        <x:v>226</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>90</x:v>
@@ -2983,27 +2980,27 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="I64" s="1" t="s">
         <x:v>227</x:v>
-      </x:c>
-      <x:c r="I64" s="1" t="s">
-        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="D65" s="1" t="s">
+      <x:c r="E65" s="1" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="E65" s="1" t="s">
-        <x:v>232</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
         <x:v>151</x:v>
@@ -3012,24 +3009,24 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="I65" s="1" t="s">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="I65" s="1" t="s">
-        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="D66" s="1" t="s">
         <x:v>235</x:v>
-      </x:c>
-      <x:c r="D66" s="1" t="s">
-        <x:v>236</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>63</x:v>
@@ -3044,24 +3041,24 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D67" s="1" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="D67" s="1" t="s">
+      <x:c r="E67" s="1" t="s">
         <x:v>239</x:v>
-      </x:c>
-      <x:c r="E67" s="1" t="s">
-        <x:v>240</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
         <x:v>30</x:v>
@@ -3070,10 +3067,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="I67" s="1" t="s">
         <x:v>241</x:v>
-      </x:c>
-      <x:c r="I67" s="1" t="s">
-        <x:v>242</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -316,7 +316,7 @@
     <x:t>2871</x:t>
   </x:si>
   <x:si>
-    <x:t>232</x:t>
+    <x:t>233</x:t>
   </x:si>
   <x:si>
     <x:t>1014</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>13997</x:t>
+    <x:t>13998</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -349,274 +349,277 @@
     <x:t>2998</x:t>
   </x:si>
   <x:si>
+    <x:t>252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2726</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14959</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212</x:t>
+  </x:si>
+  <x:si>
     <x:t>251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2726</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14958</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>773</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>364</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>636</x:t>
-  </x:si>
-  <x:si>
-    <x:t>534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1368</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7332</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>784</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>998</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>430</x:t>
-  </x:si>
-  <x:si>
-    <x:t>614</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212</x:t>
   </x:si>
   <x:si>
     <x:t>133</x:t>
@@ -2780,7 +2783,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2791,10 +2794,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>142</x:v>
@@ -2806,21 +2809,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
         <x:v>107</x:v>
@@ -2835,21 +2838,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>21</x:v>
@@ -2858,7 +2861,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>15</x:v>
@@ -2867,21 +2870,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>25</x:v>
@@ -2896,41 +2899,41 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>18</x:v>
@@ -2939,7 +2942,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
         <x:v>16</x:v>
@@ -2954,24 +2957,24 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
         <x:v>90</x:v>
@@ -2980,27 +2983,27 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
         <x:v>151</x:v>
@@ -3009,24 +3012,24 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
         <x:v>63</x:v>
@@ -3041,24 +3044,24 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I66" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
         <x:v>30</x:v>
@@ -3067,10 +3070,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="I67" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -310,7 +310,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>7344</x:t>
+    <x:t>7346</x:t>
   </x:si>
   <x:si>
     <x:t>2871</x:t>
@@ -319,7 +319,7 @@
     <x:t>233</x:t>
   </x:si>
   <x:si>
-    <x:t>1014</x:t>
+    <x:t>1013</x:t>
   </x:si>
   <x:si>
     <x:t>19</x:t>
@@ -328,7 +328,7 @@
     <x:t>2517</x:t>
   </x:si>
   <x:si>
-    <x:t>13998</x:t>
+    <x:t>13999</x:t>
   </x:si>
   <x:si>
     <x:t>574</x:t>
@@ -343,7 +343,7 @@
     <x:t>961</x:t>
   </x:si>
   <x:si>
-    <x:t>7918</x:t>
+    <x:t>7920</x:t>
   </x:si>
   <x:si>
     <x:t>2998</x:t>
@@ -352,13 +352,13 @@
     <x:t>252</x:t>
   </x:si>
   <x:si>
-    <x:t>1045</x:t>
+    <x:t>1044</x:t>
   </x:si>
   <x:si>
     <x:t>2726</x:t>
   </x:si>
   <x:si>
-    <x:t>14959</x:t>
+    <x:t>14960</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -490,7 +490,7 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>6696</x:t>
+    <x:t>6695</x:t>
   </x:si>
   <x:si>
     <x:t>4335</x:t>
@@ -508,7 +508,7 @@
     <x:t>1309</x:t>
   </x:si>
   <x:si>
-    <x:t>13386</x:t>
+    <x:t>13385</x:t>
   </x:si>
   <x:si>
     <x:t>636</x:t>
@@ -523,7 +523,7 @@
     <x:t>1368</x:t>
   </x:si>
   <x:si>
-    <x:t>7332</x:t>
+    <x:t>7331</x:t>
   </x:si>
   <x:si>
     <x:t>4869</x:t>
@@ -541,7 +541,7 @@
     <x:t>1456</x:t>
   </x:si>
   <x:si>
-    <x:t>14754</x:t>
+    <x:t>14753</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2022.xlsx
@@ -667,7 +667,7 @@
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>855</x:t>
+    <x:t>856</x:t>
   </x:si>
   <x:si>
     <x:t>608</x:t>
@@ -679,7 +679,7 @@
     <x:t>238</x:t>
   </x:si>
   <x:si>
-    <x:t>1915</x:t>
+    <x:t>1916</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -688,7 +688,7 @@
     <x:t>304</x:t>
   </x:si>
   <x:si>
-    <x:t>885</x:t>
+    <x:t>886</x:t>
   </x:si>
   <x:si>
     <x:t>812</x:t>
@@ -700,7 +700,7 @@
     <x:t>275</x:t>
   </x:si>
   <x:si>
-    <x:t>2219</x:t>
+    <x:t>2220</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
